--- a/observations/orbit_plans/mtp084/nomad_mtp084_plan_generic.xlsx
+++ b/observations/orbit_plans/mtp084/nomad_mtp084_plan_generic.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp084\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441569D9-573A-4C6B-949A-0C7651E3DBB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174C9AFD-6410-4C9A-84EE-9B3BF44847CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="538">
   <si>
     <t>#orbitType</t>
   </si>
@@ -666,9 +666,6 @@
   </si>
   <si>
     <t>2024 SEP 09 22:32:06</t>
-  </si>
-  <si>
-    <t>irNightLimb</t>
   </si>
   <si>
     <t>uvisNightLimb</t>
@@ -1697,11 +1694,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2006,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M341"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="E331" sqref="E331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2023,7 +2019,6 @@
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="92.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -4580,17 +4575,14 @@
       <c r="I116" t="s">
         <v>8</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>211</v>
       </c>
-      <c r="K116" t="s">
+      <c r="L116" t="s">
         <v>212</v>
       </c>
-      <c r="L116" t="s">
+      <c r="M116" t="s">
         <v>213</v>
-      </c>
-      <c r="M116" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -4612,7 +4604,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>24</v>
@@ -4626,10 +4618,10 @@
         <v>8</v>
       </c>
       <c r="L118" t="s">
+        <v>215</v>
+      </c>
+      <c r="M118" t="s">
         <v>216</v>
-      </c>
-      <c r="M118" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -4640,10 +4632,10 @@
         <v>8</v>
       </c>
       <c r="L119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M119" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -4654,10 +4646,10 @@
         <v>8</v>
       </c>
       <c r="L120" t="s">
+        <v>218</v>
+      </c>
+      <c r="M120" t="s">
         <v>219</v>
-      </c>
-      <c r="M120" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
@@ -4665,10 +4657,10 @@
         <v>14</v>
       </c>
       <c r="L121" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M121" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
@@ -4678,17 +4670,14 @@
       <c r="I122" t="s">
         <v>8</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>211</v>
       </c>
-      <c r="K122" t="s">
-        <v>212</v>
-      </c>
       <c r="L122" t="s">
+        <v>221</v>
+      </c>
+      <c r="M122" t="s">
         <v>222</v>
-      </c>
-      <c r="M122" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
@@ -4699,10 +4688,10 @@
         <v>8</v>
       </c>
       <c r="L123" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M123" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
@@ -4716,7 +4705,7 @@
         <v>8</v>
       </c>
       <c r="L124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M124" t="s">
         <v>36</v>
@@ -4730,10 +4719,10 @@
         <v>8</v>
       </c>
       <c r="L125" t="s">
+        <v>225</v>
+      </c>
+      <c r="M125" t="s">
         <v>226</v>
-      </c>
-      <c r="M125" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
@@ -4744,10 +4733,10 @@
         <v>8</v>
       </c>
       <c r="L126" t="s">
+        <v>227</v>
+      </c>
+      <c r="M126" t="s">
         <v>228</v>
-      </c>
-      <c r="M126" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -4758,10 +4747,10 @@
         <v>8</v>
       </c>
       <c r="L127" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
@@ -4772,10 +4761,10 @@
         <v>8</v>
       </c>
       <c r="L128" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M128" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.3">
@@ -4786,10 +4775,10 @@
         <v>8</v>
       </c>
       <c r="L129" t="s">
+        <v>231</v>
+      </c>
+      <c r="M129" t="s">
         <v>232</v>
-      </c>
-      <c r="M129" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.3">
@@ -4800,10 +4789,10 @@
         <v>8</v>
       </c>
       <c r="L130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M130" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.3">
@@ -4814,10 +4803,10 @@
         <v>8</v>
       </c>
       <c r="L131" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M131" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.3">
@@ -4828,10 +4817,10 @@
         <v>8</v>
       </c>
       <c r="L132" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M132" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.3">
@@ -4842,10 +4831,10 @@
         <v>8</v>
       </c>
       <c r="L133" t="s">
+        <v>236</v>
+      </c>
+      <c r="M133" t="s">
         <v>237</v>
-      </c>
-      <c r="M133" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.3">
@@ -4856,10 +4845,10 @@
         <v>8</v>
       </c>
       <c r="L134" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M134" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -4870,7 +4859,7 @@
         <v>8</v>
       </c>
       <c r="L135" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M135" t="s">
         <v>56</v>
@@ -4884,10 +4873,10 @@
         <v>8</v>
       </c>
       <c r="L136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.3">
@@ -4898,10 +4887,10 @@
         <v>8</v>
       </c>
       <c r="L137" t="s">
+        <v>241</v>
+      </c>
+      <c r="M137" t="s">
         <v>242</v>
-      </c>
-      <c r="M137" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.3">
@@ -4923,7 +4912,7 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>60</v>
@@ -4934,10 +4923,10 @@
         <v>14</v>
       </c>
       <c r="L139" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.3">
@@ -4945,7 +4934,7 @@
         <v>14</v>
       </c>
       <c r="L140" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M140" t="s">
         <v>75</v>
@@ -4959,10 +4948,10 @@
         <v>8</v>
       </c>
       <c r="L141" t="s">
+        <v>246</v>
+      </c>
+      <c r="M141" t="s">
         <v>247</v>
-      </c>
-      <c r="M141" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.3">
@@ -4984,7 +4973,7 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>67</v>
@@ -4998,10 +4987,10 @@
         <v>8</v>
       </c>
       <c r="L143" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M143" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.3">
@@ -5012,10 +5001,10 @@
         <v>8</v>
       </c>
       <c r="L144" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M144" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.3">
@@ -5026,10 +5015,10 @@
         <v>8</v>
       </c>
       <c r="L145" t="s">
+        <v>251</v>
+      </c>
+      <c r="M145" t="s">
         <v>252</v>
-      </c>
-      <c r="M145" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.3">
@@ -5040,10 +5029,10 @@
         <v>8</v>
       </c>
       <c r="L146" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M146" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.3">
@@ -5054,10 +5043,10 @@
         <v>8</v>
       </c>
       <c r="L147" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M147" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
@@ -5068,7 +5057,7 @@
         <v>8</v>
       </c>
       <c r="L148" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M148" t="s">
         <v>77</v>
@@ -5079,10 +5068,10 @@
         <v>14</v>
       </c>
       <c r="L149" t="s">
+        <v>256</v>
+      </c>
+      <c r="M149" t="s">
         <v>257</v>
-      </c>
-      <c r="M149" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.3">
@@ -5092,17 +5081,14 @@
       <c r="I150" t="s">
         <v>8</v>
       </c>
-      <c r="J150" t="s">
+      <c r="K150" t="s">
         <v>211</v>
       </c>
-      <c r="K150" t="s">
-        <v>212</v>
-      </c>
       <c r="L150" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M150" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.3">
@@ -5124,10 +5110,10 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M151" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="M151" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.3">
@@ -5138,7 +5124,7 @@
         <v>8</v>
       </c>
       <c r="L152" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M152" t="s">
         <v>56</v>
@@ -5152,10 +5138,10 @@
         <v>8</v>
       </c>
       <c r="L153" t="s">
+        <v>262</v>
+      </c>
+      <c r="M153" t="s">
         <v>263</v>
-      </c>
-      <c r="M153" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
@@ -5166,7 +5152,7 @@
         <v>8</v>
       </c>
       <c r="L154" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M154" t="s">
         <v>86</v>
@@ -5180,10 +5166,10 @@
         <v>8</v>
       </c>
       <c r="L155" t="s">
+        <v>265</v>
+      </c>
+      <c r="M155" t="s">
         <v>266</v>
-      </c>
-      <c r="M155" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
@@ -5194,10 +5180,10 @@
         <v>8</v>
       </c>
       <c r="L156" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M156" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
@@ -5208,10 +5194,10 @@
         <v>8</v>
       </c>
       <c r="L157" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M157" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.3">
@@ -5222,10 +5208,10 @@
         <v>8</v>
       </c>
       <c r="L158" t="s">
+        <v>269</v>
+      </c>
+      <c r="M158" t="s">
         <v>270</v>
-      </c>
-      <c r="M158" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
@@ -5236,10 +5222,10 @@
         <v>8</v>
       </c>
       <c r="L159" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M159" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.3">
@@ -5250,7 +5236,7 @@
         <v>8</v>
       </c>
       <c r="L160" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M160" t="s">
         <v>56</v>
@@ -5261,10 +5247,10 @@
         <v>14</v>
       </c>
       <c r="L161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M161" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.3">
@@ -5274,17 +5260,14 @@
       <c r="I162" t="s">
         <v>8</v>
       </c>
-      <c r="J162" t="s">
+      <c r="K162" t="s">
         <v>211</v>
       </c>
-      <c r="K162" t="s">
-        <v>212</v>
-      </c>
       <c r="L162" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M162" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.3">
@@ -5306,10 +5289,10 @@
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M163" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.3">
@@ -5331,10 +5314,10 @@
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.3">
@@ -5345,10 +5328,10 @@
         <v>8</v>
       </c>
       <c r="L165" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M165" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
@@ -5359,10 +5342,10 @@
         <v>8</v>
       </c>
       <c r="L166" t="s">
+        <v>279</v>
+      </c>
+      <c r="M166" t="s">
         <v>280</v>
-      </c>
-      <c r="M166" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
@@ -5373,7 +5356,7 @@
         <v>8</v>
       </c>
       <c r="L167" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M167" t="s">
         <v>104</v>
@@ -5387,10 +5370,10 @@
         <v>8</v>
       </c>
       <c r="L168" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M168" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.3">
@@ -5401,7 +5384,7 @@
         <v>8</v>
       </c>
       <c r="L169" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M169" t="s">
         <v>108</v>
@@ -5415,10 +5398,10 @@
         <v>8</v>
       </c>
       <c r="L170" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M170" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.3">
@@ -5429,10 +5412,10 @@
         <v>8</v>
       </c>
       <c r="L171" t="s">
+        <v>285</v>
+      </c>
+      <c r="M171" t="s">
         <v>286</v>
-      </c>
-      <c r="M171" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.3">
@@ -5440,10 +5423,10 @@
         <v>14</v>
       </c>
       <c r="L172" t="s">
+        <v>287</v>
+      </c>
+      <c r="M172" t="s">
         <v>288</v>
-      </c>
-      <c r="M172" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.3">
@@ -5454,7 +5437,7 @@
         <v>8</v>
       </c>
       <c r="L173" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M173" t="s">
         <v>116</v>
@@ -5468,10 +5451,10 @@
         <v>8</v>
       </c>
       <c r="L174" t="s">
+        <v>290</v>
+      </c>
+      <c r="M174" t="s">
         <v>291</v>
-      </c>
-      <c r="M174" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.3">
@@ -5482,10 +5465,10 @@
         <v>8</v>
       </c>
       <c r="L175" t="s">
+        <v>292</v>
+      </c>
+      <c r="M175" t="s">
         <v>293</v>
-      </c>
-      <c r="M175" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.3">
@@ -5496,7 +5479,7 @@
         <v>8</v>
       </c>
       <c r="L176" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M176" t="s">
         <v>122</v>
@@ -5510,10 +5493,10 @@
         <v>8</v>
       </c>
       <c r="L177" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M177" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.3">
@@ -5524,10 +5507,10 @@
         <v>8</v>
       </c>
       <c r="L178" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M178" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.3">
@@ -5538,10 +5521,10 @@
         <v>8</v>
       </c>
       <c r="L179" t="s">
+        <v>297</v>
+      </c>
+      <c r="M179" t="s">
         <v>298</v>
-      </c>
-      <c r="M179" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.3">
@@ -5552,10 +5535,10 @@
         <v>8</v>
       </c>
       <c r="L180" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M180" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.3">
@@ -5566,10 +5549,10 @@
         <v>8</v>
       </c>
       <c r="L181" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M181" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.3">
@@ -5580,10 +5563,10 @@
         <v>8</v>
       </c>
       <c r="L182" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M182" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.3">
@@ -5594,10 +5577,10 @@
         <v>8</v>
       </c>
       <c r="L183" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M183" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.3">
@@ -5605,10 +5588,10 @@
         <v>14</v>
       </c>
       <c r="L184" t="s">
+        <v>303</v>
+      </c>
+      <c r="M184" t="s">
         <v>304</v>
-      </c>
-      <c r="M184" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.3">
@@ -5619,7 +5602,7 @@
         <v>8</v>
       </c>
       <c r="L185" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M185" t="s">
         <v>135</v>
@@ -5636,10 +5619,10 @@
         <v>8</v>
       </c>
       <c r="L186" t="s">
+        <v>306</v>
+      </c>
+      <c r="M186" t="s">
         <v>307</v>
-      </c>
-      <c r="M186" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.3">
@@ -5650,10 +5633,10 @@
         <v>8</v>
       </c>
       <c r="L187" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M187" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.3">
@@ -5664,10 +5647,10 @@
         <v>8</v>
       </c>
       <c r="L188" t="s">
+        <v>309</v>
+      </c>
+      <c r="M188" t="s">
         <v>310</v>
-      </c>
-      <c r="M188" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.3">
@@ -5678,10 +5661,10 @@
         <v>8</v>
       </c>
       <c r="L189" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M189" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.3">
@@ -5692,10 +5675,10 @@
         <v>8</v>
       </c>
       <c r="L190" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M190" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.3">
@@ -5706,10 +5689,10 @@
         <v>8</v>
       </c>
       <c r="L191" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M191" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.3">
@@ -5720,10 +5703,10 @@
         <v>8</v>
       </c>
       <c r="L192" t="s">
+        <v>314</v>
+      </c>
+      <c r="M192" t="s">
         <v>315</v>
-      </c>
-      <c r="M192" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
@@ -5734,10 +5717,10 @@
         <v>8</v>
       </c>
       <c r="L193" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M193" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.3">
@@ -5751,10 +5734,10 @@
         <v>8</v>
       </c>
       <c r="L194" t="s">
+        <v>317</v>
+      </c>
+      <c r="M194" t="s">
         <v>318</v>
-      </c>
-      <c r="M194" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.3">
@@ -5765,10 +5748,10 @@
         <v>8</v>
       </c>
       <c r="L195" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M195" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.3">
@@ -5776,10 +5759,10 @@
         <v>14</v>
       </c>
       <c r="L196" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M196" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.3">
@@ -5790,7 +5773,7 @@
         <v>8</v>
       </c>
       <c r="L197" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M197" t="s">
         <v>56</v>
@@ -5804,10 +5787,10 @@
         <v>8</v>
       </c>
       <c r="L198" t="s">
+        <v>322</v>
+      </c>
+      <c r="M198" t="s">
         <v>323</v>
-      </c>
-      <c r="M198" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
@@ -5818,10 +5801,10 @@
         <v>8</v>
       </c>
       <c r="L199" t="s">
+        <v>324</v>
+      </c>
+      <c r="M199" t="s">
         <v>325</v>
-      </c>
-      <c r="M199" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
@@ -5832,10 +5815,10 @@
         <v>8</v>
       </c>
       <c r="L200" t="s">
+        <v>326</v>
+      </c>
+      <c r="M200" t="s">
         <v>327</v>
-      </c>
-      <c r="M200" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.3">
@@ -5846,10 +5829,10 @@
         <v>8</v>
       </c>
       <c r="L201" t="s">
+        <v>328</v>
+      </c>
+      <c r="M201" t="s">
         <v>329</v>
-      </c>
-      <c r="M201" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.3">
@@ -5860,10 +5843,10 @@
         <v>8</v>
       </c>
       <c r="L202" t="s">
+        <v>330</v>
+      </c>
+      <c r="M202" t="s">
         <v>331</v>
-      </c>
-      <c r="M202" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.3">
@@ -5874,10 +5857,10 @@
         <v>8</v>
       </c>
       <c r="L203" t="s">
+        <v>332</v>
+      </c>
+      <c r="M203" t="s">
         <v>333</v>
-      </c>
-      <c r="M203" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.3">
@@ -5888,10 +5871,10 @@
         <v>8</v>
       </c>
       <c r="L204" t="s">
+        <v>334</v>
+      </c>
+      <c r="M204" t="s">
         <v>335</v>
-      </c>
-      <c r="M204" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.3">
@@ -5902,10 +5885,10 @@
         <v>8</v>
       </c>
       <c r="L205" t="s">
+        <v>336</v>
+      </c>
+      <c r="M205" t="s">
         <v>337</v>
-      </c>
-      <c r="M205" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.3">
@@ -5916,10 +5899,10 @@
         <v>8</v>
       </c>
       <c r="L206" t="s">
+        <v>338</v>
+      </c>
+      <c r="M206" t="s">
         <v>339</v>
-      </c>
-      <c r="M206" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
@@ -5930,10 +5913,10 @@
         <v>8</v>
       </c>
       <c r="L207" t="s">
+        <v>340</v>
+      </c>
+      <c r="M207" t="s">
         <v>341</v>
-      </c>
-      <c r="M207" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.3">
@@ -5941,10 +5924,10 @@
         <v>14</v>
       </c>
       <c r="L208" t="s">
+        <v>342</v>
+      </c>
+      <c r="M208" t="s">
         <v>343</v>
-      </c>
-      <c r="M208" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
@@ -5955,10 +5938,10 @@
         <v>8</v>
       </c>
       <c r="L209" t="s">
+        <v>344</v>
+      </c>
+      <c r="M209" t="s">
         <v>345</v>
-      </c>
-      <c r="M209" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
@@ -5969,10 +5952,10 @@
         <v>8</v>
       </c>
       <c r="L210" t="s">
+        <v>346</v>
+      </c>
+      <c r="M210" t="s">
         <v>347</v>
-      </c>
-      <c r="M210" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
@@ -5983,10 +5966,10 @@
         <v>8</v>
       </c>
       <c r="L211" t="s">
+        <v>348</v>
+      </c>
+      <c r="M211" t="s">
         <v>349</v>
-      </c>
-      <c r="M211" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
@@ -5997,10 +5980,10 @@
         <v>8</v>
       </c>
       <c r="L212" t="s">
+        <v>350</v>
+      </c>
+      <c r="M212" t="s">
         <v>351</v>
-      </c>
-      <c r="M212" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.3">
@@ -6014,7 +5997,7 @@
         <v>8</v>
       </c>
       <c r="L213" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M213" t="s">
         <v>56</v>
@@ -6025,10 +6008,10 @@
         <v>14</v>
       </c>
       <c r="L214" t="s">
+        <v>353</v>
+      </c>
+      <c r="M214" t="s">
         <v>354</v>
-      </c>
-      <c r="M214" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
@@ -6039,10 +6022,10 @@
         <v>8</v>
       </c>
       <c r="L215" t="s">
+        <v>355</v>
+      </c>
+      <c r="M215" t="s">
         <v>356</v>
-      </c>
-      <c r="M215" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.3">
@@ -6053,10 +6036,10 @@
         <v>8</v>
       </c>
       <c r="L216" t="s">
+        <v>357</v>
+      </c>
+      <c r="M216" t="s">
         <v>358</v>
-      </c>
-      <c r="M216" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.3">
@@ -6067,10 +6050,10 @@
         <v>8</v>
       </c>
       <c r="L217" t="s">
+        <v>359</v>
+      </c>
+      <c r="M217" t="s">
         <v>360</v>
-      </c>
-      <c r="M217" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
@@ -6081,10 +6064,10 @@
         <v>8</v>
       </c>
       <c r="L218" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M218" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
@@ -6095,10 +6078,10 @@
         <v>8</v>
       </c>
       <c r="L219" t="s">
+        <v>362</v>
+      </c>
+      <c r="M219" t="s">
         <v>363</v>
-      </c>
-      <c r="M219" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.3">
@@ -6109,10 +6092,10 @@
         <v>8</v>
       </c>
       <c r="L220" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M220" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.3">
@@ -6123,10 +6106,10 @@
         <v>8</v>
       </c>
       <c r="L221" t="s">
+        <v>365</v>
+      </c>
+      <c r="M221" t="s">
         <v>366</v>
-      </c>
-      <c r="M221" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
@@ -6137,10 +6120,10 @@
         <v>8</v>
       </c>
       <c r="L222" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M222" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.3">
@@ -6151,10 +6134,10 @@
         <v>8</v>
       </c>
       <c r="L223" t="s">
+        <v>368</v>
+      </c>
+      <c r="M223" t="s">
         <v>369</v>
-      </c>
-      <c r="M223" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.3">
@@ -6165,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="L224" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M224" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.3">
@@ -6179,10 +6162,10 @@
         <v>8</v>
       </c>
       <c r="L225" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M225" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.3">
@@ -6190,10 +6173,10 @@
         <v>14</v>
       </c>
       <c r="L226" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M226" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.3">
@@ -6204,10 +6187,10 @@
         <v>8</v>
       </c>
       <c r="L227" t="s">
+        <v>373</v>
+      </c>
+      <c r="M227" t="s">
         <v>374</v>
-      </c>
-      <c r="M227" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
@@ -6218,10 +6201,10 @@
         <v>8</v>
       </c>
       <c r="L228" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M228" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.3">
@@ -6232,10 +6215,10 @@
         <v>8</v>
       </c>
       <c r="L229" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M229" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.3">
@@ -6249,7 +6232,7 @@
         <v>8</v>
       </c>
       <c r="L230" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M230" t="s">
         <v>56</v>
@@ -6263,10 +6246,10 @@
         <v>8</v>
       </c>
       <c r="L231" t="s">
+        <v>378</v>
+      </c>
+      <c r="M231" t="s">
         <v>379</v>
-      </c>
-      <c r="M231" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.3">
@@ -6277,10 +6260,10 @@
         <v>8</v>
       </c>
       <c r="L232" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M232" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.3">
@@ -6291,10 +6274,10 @@
         <v>8</v>
       </c>
       <c r="L233" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M233" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.3">
@@ -6305,10 +6288,10 @@
         <v>8</v>
       </c>
       <c r="L234" t="s">
+        <v>382</v>
+      </c>
+      <c r="M234" t="s">
         <v>383</v>
-      </c>
-      <c r="M234" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.3">
@@ -6319,10 +6302,10 @@
         <v>8</v>
       </c>
       <c r="L235" t="s">
+        <v>384</v>
+      </c>
+      <c r="M235" t="s">
         <v>385</v>
-      </c>
-      <c r="M235" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.3">
@@ -6333,10 +6316,10 @@
         <v>8</v>
       </c>
       <c r="L236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M236" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.3">
@@ -6347,10 +6330,10 @@
         <v>8</v>
       </c>
       <c r="L237" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M237" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.3">
@@ -6361,10 +6344,10 @@
         <v>8</v>
       </c>
       <c r="L238" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M238" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.3">
@@ -6375,10 +6358,10 @@
         <v>8</v>
       </c>
       <c r="L239" t="s">
+        <v>389</v>
+      </c>
+      <c r="M239" t="s">
         <v>390</v>
-      </c>
-      <c r="M239" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.3">
@@ -6389,10 +6372,10 @@
         <v>8</v>
       </c>
       <c r="L240" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M240" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.3">
@@ -6403,10 +6386,10 @@
         <v>8</v>
       </c>
       <c r="L241" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M241" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.3">
@@ -6417,10 +6400,10 @@
         <v>8</v>
       </c>
       <c r="L242" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M242" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.3">
@@ -6431,10 +6414,10 @@
         <v>8</v>
       </c>
       <c r="L243" t="s">
+        <v>394</v>
+      </c>
+      <c r="M243" t="s">
         <v>395</v>
-      </c>
-      <c r="M243" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.3">
@@ -6445,10 +6428,10 @@
         <v>8</v>
       </c>
       <c r="L244" t="s">
+        <v>396</v>
+      </c>
+      <c r="M244" t="s">
         <v>397</v>
-      </c>
-      <c r="M244" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.3">
@@ -6459,10 +6442,10 @@
         <v>8</v>
       </c>
       <c r="L245" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M245" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.3">
@@ -6473,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="L246" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M246" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.3">
@@ -6487,10 +6470,10 @@
         <v>8</v>
       </c>
       <c r="L247" t="s">
+        <v>400</v>
+      </c>
+      <c r="M247" t="s">
         <v>401</v>
-      </c>
-      <c r="M247" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.3">
@@ -6501,10 +6484,10 @@
         <v>8</v>
       </c>
       <c r="L248" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M248" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.3">
@@ -6515,10 +6498,10 @@
         <v>8</v>
       </c>
       <c r="L249" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M249" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.3">
@@ -6529,10 +6512,10 @@
         <v>8</v>
       </c>
       <c r="L250" t="s">
+        <v>404</v>
+      </c>
+      <c r="M250" t="s">
         <v>405</v>
-      </c>
-      <c r="M250" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.3">
@@ -6543,10 +6526,10 @@
         <v>8</v>
       </c>
       <c r="L251" t="s">
+        <v>406</v>
+      </c>
+      <c r="M251" t="s">
         <v>407</v>
-      </c>
-      <c r="M251" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.3">
@@ -6560,10 +6543,10 @@
         <v>8</v>
       </c>
       <c r="L252" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M252" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.3">
@@ -6574,10 +6557,10 @@
         <v>8</v>
       </c>
       <c r="L253" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M253" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.3">
@@ -6588,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="L254" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M254" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.3">
@@ -6602,10 +6585,10 @@
         <v>8</v>
       </c>
       <c r="L255" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M255" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.3">
@@ -6613,10 +6596,10 @@
         <v>14</v>
       </c>
       <c r="L256" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M256" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
@@ -6624,7 +6607,7 @@
         <v>14</v>
       </c>
       <c r="L257" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M257" t="s">
         <v>158</v>
@@ -6638,10 +6621,10 @@
         <v>8</v>
       </c>
       <c r="L258" t="s">
+        <v>414</v>
+      </c>
+      <c r="M258" t="s">
         <v>415</v>
-      </c>
-      <c r="M258" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
@@ -6652,10 +6635,10 @@
         <v>8</v>
       </c>
       <c r="L259" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M259" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
@@ -6666,10 +6649,10 @@
         <v>8</v>
       </c>
       <c r="L260" t="s">
+        <v>417</v>
+      </c>
+      <c r="M260" t="s">
         <v>418</v>
-      </c>
-      <c r="M260" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
@@ -6680,10 +6663,10 @@
         <v>8</v>
       </c>
       <c r="L261" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M261" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
@@ -6694,10 +6677,10 @@
         <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M262" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
@@ -6708,10 +6691,10 @@
         <v>8</v>
       </c>
       <c r="L263" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M263" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
@@ -6722,10 +6705,10 @@
         <v>8</v>
       </c>
       <c r="L264" t="s">
+        <v>422</v>
+      </c>
+      <c r="M264" t="s">
         <v>423</v>
-      </c>
-      <c r="M264" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
@@ -6736,10 +6719,10 @@
         <v>8</v>
       </c>
       <c r="L265" t="s">
+        <v>424</v>
+      </c>
+      <c r="M265" t="s">
         <v>425</v>
-      </c>
-      <c r="M265" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
@@ -6750,10 +6733,10 @@
         <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M266" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
@@ -6764,10 +6747,10 @@
         <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M267" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
@@ -6781,10 +6764,10 @@
         <v>8</v>
       </c>
       <c r="L268" t="s">
+        <v>428</v>
+      </c>
+      <c r="M268" t="s">
         <v>429</v>
-      </c>
-      <c r="M268" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
@@ -6795,10 +6778,10 @@
         <v>8</v>
       </c>
       <c r="L269" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M269" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
@@ -6809,10 +6792,10 @@
         <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M270" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
@@ -6823,10 +6806,10 @@
         <v>8</v>
       </c>
       <c r="L271" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M271" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -6834,7 +6817,7 @@
         <v>14</v>
       </c>
       <c r="L272" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M272" t="s">
         <v>24</v>
@@ -6845,10 +6828,10 @@
         <v>14</v>
       </c>
       <c r="L273" t="s">
+        <v>434</v>
+      </c>
+      <c r="M273" t="s">
         <v>435</v>
-      </c>
-      <c r="M273" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
@@ -6859,10 +6842,10 @@
         <v>8</v>
       </c>
       <c r="L274" t="s">
+        <v>436</v>
+      </c>
+      <c r="M274" t="s">
         <v>437</v>
-      </c>
-      <c r="M274" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
@@ -6873,10 +6856,10 @@
         <v>8</v>
       </c>
       <c r="L275" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M275" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
@@ -6887,10 +6870,10 @@
         <v>8</v>
       </c>
       <c r="L276" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M276" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
@@ -6901,10 +6884,10 @@
         <v>8</v>
       </c>
       <c r="L277" t="s">
+        <v>440</v>
+      </c>
+      <c r="M277" t="s">
         <v>441</v>
-      </c>
-      <c r="M277" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
@@ -6915,10 +6898,10 @@
         <v>8</v>
       </c>
       <c r="L278" t="s">
+        <v>442</v>
+      </c>
+      <c r="M278" t="s">
         <v>443</v>
-      </c>
-      <c r="M278" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
@@ -6929,10 +6912,10 @@
         <v>8</v>
       </c>
       <c r="L279" t="s">
+        <v>444</v>
+      </c>
+      <c r="M279" t="s">
         <v>445</v>
-      </c>
-      <c r="M279" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
@@ -6943,10 +6926,10 @@
         <v>8</v>
       </c>
       <c r="L280" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M280" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
@@ -6957,10 +6940,10 @@
         <v>8</v>
       </c>
       <c r="L281" t="s">
+        <v>447</v>
+      </c>
+      <c r="M281" t="s">
         <v>448</v>
-      </c>
-      <c r="M281" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
@@ -6971,10 +6954,10 @@
         <v>8</v>
       </c>
       <c r="L282" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M282" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
@@ -6985,27 +6968,24 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M283" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>47</v>
       </c>
-      <c r="J284" t="s">
+      <c r="K284" t="s">
         <v>211</v>
       </c>
-      <c r="K284" t="s">
-        <v>212</v>
-      </c>
       <c r="L284" t="s">
+        <v>451</v>
+      </c>
+      <c r="M284" t="s">
         <v>452</v>
-      </c>
-      <c r="M284" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
@@ -7016,10 +6996,10 @@
         <v>8</v>
       </c>
       <c r="L285" t="s">
+        <v>453</v>
+      </c>
+      <c r="M285" t="s">
         <v>454</v>
-      </c>
-      <c r="M285" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
@@ -7033,10 +7013,10 @@
         <v>8</v>
       </c>
       <c r="L286" t="s">
+        <v>455</v>
+      </c>
+      <c r="M286" t="s">
         <v>456</v>
-      </c>
-      <c r="M286" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
@@ -7047,10 +7027,10 @@
         <v>8</v>
       </c>
       <c r="L287" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M287" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
@@ -7061,10 +7041,10 @@
         <v>8</v>
       </c>
       <c r="L288" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M288" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.3">
@@ -7075,27 +7055,24 @@
         <v>8</v>
       </c>
       <c r="L289" t="s">
+        <v>459</v>
+      </c>
+      <c r="M289" t="s">
         <v>460</v>
-      </c>
-      <c r="M289" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>47</v>
       </c>
-      <c r="J290" t="s">
+      <c r="K290" t="s">
         <v>211</v>
       </c>
-      <c r="K290" t="s">
-        <v>212</v>
-      </c>
       <c r="L290" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M290" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.3">
@@ -7106,10 +7083,10 @@
         <v>8</v>
       </c>
       <c r="L291" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M291" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.3">
@@ -7120,10 +7097,10 @@
         <v>8</v>
       </c>
       <c r="L292" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M292" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.3">
@@ -7134,10 +7111,10 @@
         <v>8</v>
       </c>
       <c r="L293" t="s">
+        <v>464</v>
+      </c>
+      <c r="M293" t="s">
         <v>465</v>
-      </c>
-      <c r="M293" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.3">
@@ -7148,10 +7125,10 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
+        <v>466</v>
+      </c>
+      <c r="M294" t="s">
         <v>467</v>
-      </c>
-      <c r="M294" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.3">
@@ -7162,10 +7139,10 @@
         <v>8</v>
       </c>
       <c r="L295" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M295" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.3">
@@ -7173,10 +7150,10 @@
         <v>14</v>
       </c>
       <c r="L296" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M296" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.3">
@@ -7187,10 +7164,10 @@
         <v>8</v>
       </c>
       <c r="L297" t="s">
+        <v>470</v>
+      </c>
+      <c r="M297" t="s">
         <v>471</v>
-      </c>
-      <c r="M297" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.3">
@@ -7201,7 +7178,7 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M298" t="s">
         <v>150</v>
@@ -7215,10 +7192,10 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M299" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.3">
@@ -7229,10 +7206,10 @@
         <v>8</v>
       </c>
       <c r="L300" t="s">
+        <v>474</v>
+      </c>
+      <c r="M300" t="s">
         <v>475</v>
-      </c>
-      <c r="M300" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.3">
@@ -7246,10 +7223,10 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
+        <v>476</v>
+      </c>
+      <c r="M301" t="s">
         <v>477</v>
-      </c>
-      <c r="M301" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.3">
@@ -7260,7 +7237,7 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M302" t="s">
         <v>113</v>
@@ -7274,10 +7251,10 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M303" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.3">
@@ -7288,10 +7265,10 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
+        <v>480</v>
+      </c>
+      <c r="M304" t="s">
         <v>481</v>
-      </c>
-      <c r="M304" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.3">
@@ -7311,10 +7288,10 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M305" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.3">
@@ -7325,10 +7302,10 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
+        <v>483</v>
+      </c>
+      <c r="M306" t="s">
         <v>484</v>
-      </c>
-      <c r="M306" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.3">
@@ -7339,10 +7316,10 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
+        <v>485</v>
+      </c>
+      <c r="M307" t="s">
         <v>486</v>
-      </c>
-      <c r="M307" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.3">
@@ -7362,10 +7339,10 @@
         <v>8</v>
       </c>
       <c r="L308" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M308" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.3">
@@ -7376,10 +7353,10 @@
         <v>8</v>
       </c>
       <c r="L309" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M309" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.3">
@@ -7399,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="L310" t="s">
+        <v>489</v>
+      </c>
+      <c r="M310" t="s">
         <v>490</v>
-      </c>
-      <c r="M310" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.3">
@@ -7416,7 +7393,7 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M311" t="s">
         <v>56</v>
@@ -7439,10 +7416,10 @@
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M312" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.3">
@@ -7453,10 +7430,10 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
+        <v>493</v>
+      </c>
+      <c r="M313" t="s">
         <v>494</v>
-      </c>
-      <c r="M313" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.3">
@@ -7476,7 +7453,7 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M314" t="s">
         <v>56</v>
@@ -7499,10 +7476,10 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
+        <v>496</v>
+      </c>
+      <c r="M315" t="s">
         <v>497</v>
-      </c>
-      <c r="M315" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.3">
@@ -7513,10 +7490,10 @@
         <v>8</v>
       </c>
       <c r="L316" t="s">
+        <v>498</v>
+      </c>
+      <c r="M316" t="s">
         <v>499</v>
-      </c>
-      <c r="M316" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.3">
@@ -7536,10 +7513,10 @@
         <v>8</v>
       </c>
       <c r="L317" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M317" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.3">
@@ -7568,7 +7545,7 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M318" t="s">
         <v>161</v>
@@ -7582,7 +7559,7 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M319" t="s">
         <v>56</v>
@@ -7614,10 +7591,10 @@
         <v>8</v>
       </c>
       <c r="L320" t="s">
+        <v>503</v>
+      </c>
+      <c r="M320" t="s">
         <v>504</v>
-      </c>
-      <c r="M320" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.3">
@@ -7646,10 +7623,10 @@
         <v>8</v>
       </c>
       <c r="L321" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M321" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.3">
@@ -7678,7 +7655,7 @@
         <v>8</v>
       </c>
       <c r="L322" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M322" t="s">
         <v>104</v>
@@ -7710,10 +7687,10 @@
         <v>8</v>
       </c>
       <c r="L323" t="s">
+        <v>507</v>
+      </c>
+      <c r="M323" t="s">
         <v>508</v>
-      </c>
-      <c r="M323" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.3">
@@ -7742,7 +7719,7 @@
         <v>8</v>
       </c>
       <c r="L324" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M324" t="s">
         <v>49</v>
@@ -7756,10 +7733,10 @@
         <v>8</v>
       </c>
       <c r="L325" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M325" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.3">
@@ -7776,10 +7753,10 @@
         <v>3</v>
       </c>
       <c r="E326" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F326" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G326" t="s">
         <v>6</v>
@@ -7788,10 +7765,10 @@
         <v>8</v>
       </c>
       <c r="L326" t="s">
+        <v>512</v>
+      </c>
+      <c r="M326" t="s">
         <v>513</v>
-      </c>
-      <c r="M326" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.3">
@@ -7802,10 +7779,10 @@
         <v>8</v>
       </c>
       <c r="L327" t="s">
+        <v>514</v>
+      </c>
+      <c r="M327" t="s">
         <v>515</v>
-      </c>
-      <c r="M327" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.3">
@@ -7834,10 +7811,10 @@
         <v>8</v>
       </c>
       <c r="L328" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M328" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.3">
@@ -7851,10 +7828,10 @@
         <v>8</v>
       </c>
       <c r="L329" t="s">
+        <v>517</v>
+      </c>
+      <c r="M329" t="s">
         <v>518</v>
-      </c>
-      <c r="M329" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.3">
@@ -7883,10 +7860,10 @@
         <v>8</v>
       </c>
       <c r="L330" t="s">
+        <v>519</v>
+      </c>
+      <c r="M330" t="s">
         <v>520</v>
-      </c>
-      <c r="M330" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.3">
@@ -7897,10 +7874,10 @@
         <v>8</v>
       </c>
       <c r="L331" t="s">
+        <v>521</v>
+      </c>
+      <c r="M331" t="s">
         <v>522</v>
-      </c>
-      <c r="M331" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.3">
@@ -7908,21 +7885,24 @@
         <v>14</v>
       </c>
       <c r="L332" t="s">
+        <v>523</v>
+      </c>
+      <c r="M332" t="s">
         <v>524</v>
-      </c>
-      <c r="M332" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="K333" t="s">
+        <v>211</v>
       </c>
       <c r="L333" t="s">
+        <v>525</v>
+      </c>
+      <c r="M333" t="s">
         <v>526</v>
-      </c>
-      <c r="M333" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.3">
@@ -7933,10 +7913,10 @@
         <v>8</v>
       </c>
       <c r="L334" t="s">
+        <v>527</v>
+      </c>
+      <c r="M334" t="s">
         <v>528</v>
-      </c>
-      <c r="M334" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.3">
@@ -7965,10 +7945,10 @@
         <v>8</v>
       </c>
       <c r="L335" t="s">
+        <v>529</v>
+      </c>
+      <c r="M335" t="s">
         <v>530</v>
-      </c>
-      <c r="M335" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.3">
@@ -7979,10 +7959,10 @@
         <v>8</v>
       </c>
       <c r="L336" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M336" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.3">
@@ -8011,10 +7991,10 @@
         <v>8</v>
       </c>
       <c r="L337" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M337" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.3">
@@ -8043,10 +8023,10 @@
         <v>8</v>
       </c>
       <c r="L338" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M338" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.3">
@@ -8057,10 +8037,10 @@
         <v>8</v>
       </c>
       <c r="L339" t="s">
+        <v>534</v>
+      </c>
+      <c r="M339" t="s">
         <v>535</v>
-      </c>
-      <c r="M339" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.3">
@@ -8089,10 +8069,10 @@
         <v>8</v>
       </c>
       <c r="L340" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M340" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.3">
@@ -8103,10 +8083,10 @@
         <v>8</v>
       </c>
       <c r="L341" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M341" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
